--- a/public/template/template_pegawai.xlsx
+++ b/public/template/template_pegawai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siarsip\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C97124F-0CAC-4FEF-B84B-EE76E4B9F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A290D2-CAA4-4BF1-A889-F02C07E8A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B0774F4C-673A-4A93-9126-FFF8B3DF503B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0774F4C-673A-4A93-9126-FFF8B3DF503B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NIP</t>
   </si>
@@ -445,301 +442,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF4C07-4C94-4F5D-AD1B-3CEC2F6328F8}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
